--- a/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001907</t>
+          <t>920003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
+          <t>中金新锐股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001908</t>
+          <t>920923</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
+          <t>中金新锐股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.52</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.52</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5579</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4155</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1704,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,17 +1716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1735,14 +1756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.35</v>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5468</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1751,14 +1794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.77</v>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4575</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1767,14 +1832,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.42</v>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8533</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1783,13 +1870,1633 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7766</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6892</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4858</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4667</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4113</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3911</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3906</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3709</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2689</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3395,7 +3396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3406,17 +3407,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3426,14 +3447,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.54</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2375</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3442,14 +3485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.35</v>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3458,14 +3523,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.77</v>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8322</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3474,14 +3561,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.42</v>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7921</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3490,13 +3599,1763 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5229</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4606</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2869</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6812</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6201</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5672</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5463</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5459</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4854</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4833</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4578</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3963</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2693</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501073</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安科创主题 3 年封闭运作灵活配置 混合型</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>67.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5238,7 +5239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5249,17 +5250,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5269,14 +5290,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.01</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6934</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5285,14 +5328,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.54</v>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5301,14 +5366,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.35</v>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2820</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5317,14 +5404,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.77</v>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5333,14 +5442,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.42</v>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4247</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -5349,13 +5480,5003 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3321</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>62.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9906</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7147</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5223</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4598</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4337</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1467</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0940</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0615</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0491</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0472</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0241</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9041</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8423</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8237</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8107</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7803</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6632</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6349</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6183</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5576</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5300</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4995</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4498</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4450</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4061</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3868</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3476</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3097</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2970</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2705</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2561</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2467</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014191</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014192</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014948</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>014538</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长城研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>133</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>63.05</v>
+        <v>47.52</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01</v>
+        <v>63.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>12.54</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>2.35</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.77</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.42</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -600,6 +617,5492 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0933</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6893</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4155</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3515</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3085</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9989</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9039</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8972</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2985</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0857</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9217</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9158</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8758</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8673</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8415</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013886</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8408</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河行业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8293</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7636</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7527</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7451</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6885</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6616</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6377</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6202</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6100</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6069</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5172</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4647</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3892</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013887</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3251</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3185</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013665</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011629</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河核心优势混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011481</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发瑞锦一年定开混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>73.03</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014526</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015669</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015665</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013666</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014647</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>融通先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013877</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014648</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>融通先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014703</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时时代领航混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>70.34</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013470</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>泰信低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>45.55</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>013469</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>泰信低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>015722</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>013876</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014704</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>博时时代领航混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>014948</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014527</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>014835</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>长盛安盈混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>015670</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>银河行业混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>013407</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>长盛安盈混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>016751</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>博时精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>45.55</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5703,7 +11206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7545,7 +13048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9235,7 +14738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9785,7 +15288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10145,7 +15648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10277,7 +15780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603688-石英股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="D2" t="n">
-        <v>47.52</v>
+        <v>61.06</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>63.05</v>
+        <v>47.52</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="D4" t="n">
-        <v>23.01</v>
+        <v>63.05</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>12.54</v>
+        <v>23.01</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
-        <v>2.35</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>0.77</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.42</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -616,7 +633,8501 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H218"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7258</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0221</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6765</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4850</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3515</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2761</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2491</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1350</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1029</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8221</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2653</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1823</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0283</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0065</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9815</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9498</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8651</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8415</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013886</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8389</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7744</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7596</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7475</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7242</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河行业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6906</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6853</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6508</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6106</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5878</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5822</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5235</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4895</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4819</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4747</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>41.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4670</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4201</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3864</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3844</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014647</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3780</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3756</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013887</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3156</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2942</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014648</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>融通先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>76.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>017289</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011629</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>69.64</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015729</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>朱雀碳中和三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015092</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013665</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013561</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中融匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长城研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011481</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发瑞锦一年定开混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015902</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014191</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013693</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博道盛兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博道盛彦混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013526</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>69.54</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014192</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002455</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>民生加银鑫喜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>25.46</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013877</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014299</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013666</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>014703</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博时时代领航混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>015043</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>015669</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>014701</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中欧量化动能混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014702</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中欧量化动能混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>014996</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>015006</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>014995</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>015903</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>博时优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>013876</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>财通资管新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>69.54</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>013562</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中融匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>014704</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>博时时代领航混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>015044</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>013470</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>泰信低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>015007</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>014948</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>015665</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>015093</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>博道盛彦混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>014835</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>长盛安盈混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>013469</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>泰信低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>国新国证融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>014300</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>014937</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>013407</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>长盛安盈混合A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>015670</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>银河行业混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>国新国证融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>016981</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>银河核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>69.64</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>014538</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>长城研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>016982</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>016616</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>016751</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>博时精选混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>-0.0037</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6102,7 +14613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11206,7 +19717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13048,7 +21559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14738,7 +23249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15288,7 +23799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15648,7 +24159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15778,212 +24289,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>920003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中金新锐股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3600</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>920923</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中金新锐股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0580</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001907</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0571</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001908</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>